--- a/data/blood_pressure-test2.xlsx
+++ b/data/blood_pressure-test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiabao/GitHub/Github_Repo/24h/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63759222-B0E9-8A49-9B98-ED8DA0C6FB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1174CB-751C-5C47-B335-2DFDA266A610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>时间</t>
   </si>
   <si>
-    <t>情况</t>
-  </si>
-  <si>
     <t>深度睡眠</t>
   </si>
   <si>
@@ -332,6 +329,10 @@
   </si>
   <si>
     <t>14:00(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="226" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="226" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -735,24 +736,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>141</v>
@@ -764,15 +765,15 @@
         <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>139</v>
@@ -784,15 +785,15 @@
         <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>145</v>
@@ -804,15 +805,15 @@
         <v>90</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>138</v>
@@ -824,15 +825,15 @@
         <v>84</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>136</v>
@@ -844,15 +845,15 @@
         <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
         <v>131</v>
@@ -864,15 +865,15 @@
         <v>80</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>129</v>
@@ -884,15 +885,15 @@
         <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
         <v>134</v>
@@ -904,15 +905,15 @@
         <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2">
         <v>138</v>
@@ -924,15 +925,15 @@
         <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>143</v>
@@ -944,15 +945,15 @@
         <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>147</v>
@@ -964,15 +965,15 @@
         <v>90</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2">
         <v>142</v>
@@ -984,15 +985,15 @@
         <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2">
         <v>139</v>
@@ -1004,15 +1005,15 @@
         <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2">
         <v>135</v>
@@ -1024,15 +1025,15 @@
         <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
         <v>132</v>
@@ -1044,15 +1045,15 @@
         <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2">
         <v>128</v>
@@ -1064,15 +1065,15 @@
         <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2">
         <v>130</v>
@@ -1084,15 +1085,15 @@
         <v>81</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
         <v>136</v>
@@ -1104,15 +1105,15 @@
         <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
         <v>140</v>
@@ -1124,15 +1125,15 @@
         <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>125</v>
@@ -1144,15 +1145,15 @@
         <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2">
         <v>118</v>
@@ -1164,15 +1165,15 @@
         <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2">
         <v>116</v>
@@ -1184,15 +1185,15 @@
         <v>64</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2">
         <v>114</v>
@@ -1204,15 +1205,15 @@
         <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2">
         <v>112</v>
@@ -1224,15 +1225,15 @@
         <v>61</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2">
         <v>110</v>
@@ -1244,15 +1245,15 @@
         <v>60</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
         <v>108</v>
@@ -1264,15 +1265,15 @@
         <v>58</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
         <v>111</v>
@@ -1284,15 +1285,15 @@
         <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2">
         <v>115</v>
@@ -1304,15 +1305,15 @@
         <v>64</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
         <v>120</v>
@@ -1324,15 +1325,15 @@
         <v>70</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
         <v>125</v>
@@ -1344,15 +1345,15 @@
         <v>74</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2">
         <v>132</v>
@@ -1364,15 +1365,15 @@
         <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2">
         <v>138</v>
@@ -1384,15 +1385,15 @@
         <v>84</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
         <v>144</v>
@@ -1404,15 +1405,15 @@
         <v>88</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2">
         <v>141</v>
@@ -1424,15 +1425,15 @@
         <v>86</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>137</v>
@@ -1444,15 +1445,15 @@
         <v>83</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2">
         <v>133</v>
@@ -1464,15 +1465,15 @@
         <v>80</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2">
         <v>129</v>
@@ -1484,15 +1485,15 @@
         <v>78</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2">
         <v>135</v>
@@ -1504,15 +1505,15 @@
         <v>82</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2">
         <v>140</v>
@@ -1524,15 +1525,15 @@
         <v>85</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2">
         <v>145</v>
@@ -1544,15 +1545,15 @@
         <v>88</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2">
         <v>59</v>
@@ -1564,7 +1565,7 @@
         <v>88</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
